--- a/pred_ohlcv/54_21/2019-10-11 MITH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-11 MITH ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>64987.88869999998</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>64987.88869999998</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>64987.88869999998</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>65987.88869999998</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>65987.88869999998</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>65987.88869999998</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>63127.88869999998</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>66593.88869999998</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>52661.88869999998</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>52661.88869999998</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>52661.88869999998</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>52661.88869999998</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>65968.22409999998</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>52908.22409999998</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>52908.22409999998</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>52908.22409999998</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>52908.22409999998</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>52908.22409999998</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>52908.22409999998</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>52908.22409999998</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>52908.22409999998</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>52908.22409999998</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>52918.22409999998</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>46388.22409999998</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>46388.22409999998</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>46388.22409999998</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>46388.22409999998</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>46388.22409999998</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>46388.22409999998</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>9985.99789999998</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-18299.89840000002</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-1464889.7963</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-1452650.2426</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-1466564.6669</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-1458573.6669</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-1458573.6669</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-1543469.6669</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1395594.9327</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-1395919.1878</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-1395907.1878</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-1278507.1878</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-568997.0948</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-571786.3935</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-647187.1958</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-647187.1958</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-623757.1958</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-237971.033</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-231041.033</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-234623.039</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-205613.039</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-205613.039</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-205613.039</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-11 MITH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-11 MITH ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>64987.88869999998</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>64987.88869999998</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>64987.88869999998</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>65987.88869999998</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>65987.88869999998</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>65987.88869999998</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>63127.88869999998</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>66593.88869999998</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>52661.88869999998</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>52661.88869999998</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>52661.88869999998</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>52661.88869999998</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>65968.22409999998</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>52908.22409999998</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>52908.22409999998</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>52908.22409999998</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>52908.22409999998</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>52908.22409999998</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>52908.22409999998</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>52908.22409999998</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>52908.22409999998</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>52908.22409999998</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>52918.22409999998</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>46388.22409999998</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>46388.22409999998</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>46388.22409999998</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>46388.22409999998</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>46388.22409999998</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>46388.22409999998</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>9985.99789999998</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>35626.19059999998</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-1471625.6845</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-1459309.0214</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-1452650.2426</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-1466564.6669</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-1458573.6669</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-1458573.6669</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-1543469.6669</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1395594.9327</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-568997.0948</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-571786.3935</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-647187.1958</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-647187.1958</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-623757.1958</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-237771.033</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-237971.033</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-231041.033</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-234623.039</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-205613.039</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-205613.039</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
